--- a/Data/g19.1a.xlsx
+++ b/Data/g19.1a.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>Valor</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Colocação</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -398,6 +403,11 @@
       <c r="D2">
         <v>33.47</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1º</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -418,6 +428,11 @@
       <c r="D3">
         <v>33.45</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2º</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -438,6 +453,11 @@
       <c r="D4">
         <v>33.21</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3º</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -458,6 +478,11 @@
       <c r="D5">
         <v>31.01</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4º</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,6 +503,11 @@
       <c r="D6">
         <v>30.45</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -498,6 +528,11 @@
       <c r="D7">
         <v>27.38</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6º</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -517,6 +552,11 @@
       </c>
       <c r="D8">
         <v>24.39</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12º</t>
+        </is>
       </c>
     </row>
     <row r="9">

--- a/Data/g19.1a.xlsx
+++ b/Data/g19.1a.xlsx
@@ -1,21 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C14100-95DC-45C2-84A2-DF2B4626B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="g19.1a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Variável</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Colocação</t>
+  </si>
+  <si>
+    <t>Taxa de homicídio doloso</t>
+  </si>
+  <si>
+    <t>1º</t>
+  </si>
+  <si>
+    <t>2º</t>
+  </si>
+  <si>
+    <t>3º</t>
+  </si>
+  <si>
+    <t>4º</t>
+  </si>
+  <si>
+    <t>5º</t>
+  </si>
+  <si>
+    <t>6º</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>8º</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,6 +104,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +146,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,256 +443,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Região</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Variável</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Colocação</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pernambuco</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
       </c>
       <c r="D2">
-        <v>33.47</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1º</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+        <v>2.4161618717041058E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
       </c>
       <c r="D3">
-        <v>33.45</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2º</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Alagoas</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+        <v>1.3034184613716578E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
       </c>
       <c r="D4">
-        <v>33.21</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3º</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ceará</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+        <v>1.9978594168285103E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
       </c>
       <c r="D5">
-        <v>31.01</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4º</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amazonas</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+        <v>2.6124123765396773E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
       </c>
       <c r="D6">
-        <v>30.45</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5º</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rio Grande do Norte</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+        <v>3.549748307728836E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
       </c>
       <c r="D7">
-        <v>27.38</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6º</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+        <v>3.7737306519353621E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
       </c>
       <c r="D8">
-        <v>24.39</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>12º</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+        <v>6.9252625047986613E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
       </c>
       <c r="D9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Taxa de homicídio doloso</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
+        <v>9.9022233142089411E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
       </c>
       <c r="D10">
-        <v>18.17</v>
+        <v>0.16345461622701038</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/g19.1a.xlsx
+++ b/Data/g19.1a.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C14100-95DC-45C2-84A2-DF2B4626B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B943C444-7772-4DBF-A33F-025A9BABAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="g19.1a" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>

--- a/Data/g19.1a.xlsx
+++ b/Data/g19.1a.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B943C444-7772-4DBF-A33F-025A9BABAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2BD764-B4D8-40EC-BD81-5E753DDF95A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="g19.1a" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -447,10 +447,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/Data/g19.1a.xlsx
+++ b/Data/g19.1a.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2BD764-B4D8-40EC-BD81-5E753DDF95A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF7EEC-D5C2-4515-808F-52DFCB5C1259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="g19.1a" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Região</t>
   </si>
@@ -40,24 +40,6 @@
     <t>Taxa de homicídio doloso</t>
   </si>
   <si>
-    <t>1º</t>
-  </si>
-  <si>
-    <t>2º</t>
-  </si>
-  <si>
-    <t>3º</t>
-  </si>
-  <si>
-    <t>4º</t>
-  </si>
-  <si>
-    <t>5º</t>
-  </si>
-  <si>
-    <t>6º</t>
-  </si>
-  <si>
     <t>BR</t>
   </si>
   <si>
@@ -70,22 +52,19 @@
     <t>AL</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>AP</t>
   </si>
   <si>
-    <t>8º</t>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -447,7 +426,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +453,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -483,12 +462,12 @@
         <v>2023</v>
       </c>
       <c r="D2">
-        <v>2.4161618717041058E-2</v>
+        <v>20.758449090758884</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -497,12 +476,12 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>1.3034184613716578E-2</v>
+        <v>26.071652978380218</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -511,15 +490,15 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>1.9978594168285103E-2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+        <v>18.220477881476292</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -528,15 +507,15 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>2.6124123765396773E-2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>28.529403728631156</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -545,15 +524,15 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>3.549748307728836E-2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
+        <v>30.627262240958647</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -562,15 +541,15 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>3.7737306519353621E-2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>30.964663250456407</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -579,15 +558,15 @@
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>6.9252625047986613E-2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
+        <v>32.289416974030253</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -596,15 +575,15 @@
         <v>2023</v>
       </c>
       <c r="D9">
-        <v>9.9022233142089411E-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>33.344741710310032</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -613,10 +592,10 @@
         <v>2023</v>
       </c>
       <c r="D10">
-        <v>0.16345461622701038</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
+        <v>34.046323845117534</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g19.1a.xlsx
+++ b/Data/g19.1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FF7EEC-D5C2-4515-808F-52DFCB5C1259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE7F4AD-827A-46FC-942E-BD6E274D4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Região</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>PE</t>
+  </si>
+  <si>
+    <t>31/12/2023</t>
   </si>
 </sst>
 </file>
@@ -114,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -458,8 +460,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2023</v>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D2">
         <v>20.758449090758884</v>
@@ -472,8 +474,8 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>2023</v>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
         <v>26.071652978380218</v>
@@ -486,8 +488,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>2023</v>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
         <v>18.220477881476292</v>
@@ -503,8 +505,8 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>2023</v>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D5">
         <v>28.529403728631156</v>
@@ -520,8 +522,8 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>2023</v>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D6">
         <v>30.627262240958647</v>
@@ -537,8 +539,8 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2023</v>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D7">
         <v>30.964663250456407</v>
@@ -554,8 +556,8 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>2023</v>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D8">
         <v>32.289416974030253</v>
@@ -571,8 +573,8 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>2023</v>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D9">
         <v>33.344741710310032</v>
@@ -588,8 +590,8 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>2023</v>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D10">
         <v>34.046323845117534</v>

--- a/Data/g19.1a.xlsx
+++ b/Data/g19.1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE7F4AD-827A-46FC-942E-BD6E274D4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4AC956-9337-4ECC-9115-360EF8AB1AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
